--- a/Catalyseur.xlsx
+++ b/Catalyseur.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -44,13 +47,22 @@
     <t>Entrepreunariat - TD (KRTX9AC2)</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>TYPE_TD</t>
   </si>
   <si>
+    <t>U3-109</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
     <t>7:45</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>10:0</t>
@@ -141,10 +153,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -159,15 +173,17 @@
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -184,12 +200,12 @@
         <v>45943.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>3</v>
@@ -203,10 +219,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -220,7 +238,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>3</v>
@@ -234,10 +252,12 @@
       <c r="E9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F9" s="0"/>
+      <c r="F9" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -254,7 +274,7 @@
         <v>45968.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -268,15 +288,17 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -291,15 +313,17 @@
         <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -316,7 +340,7 @@
         <v>45975.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -330,15 +354,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -355,12 +381,12 @@
         <v>45989.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>3</v>
@@ -369,15 +395,17 @@
         <v>4</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0"/>
     </row>

--- a/Catalyseur.xlsx
+++ b/Catalyseur.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -44,9 +47,15 @@
     <t>Entrepreunariat - TD (KRTX9AC2)</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>TYPE_TD</t>
   </si>
   <si>
+    <t>U3-109</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
@@ -57,6 +66,9 @@
   </si>
   <si>
     <t>Entrepreunariat  - C (KRTX9AC2)</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
 </sst>
 </file>
@@ -141,10 +153,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -159,15 +173,17 @@
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -184,12 +200,12 @@
         <v>45943.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>3</v>
@@ -203,10 +219,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -220,7 +238,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>3</v>
@@ -234,10 +252,12 @@
       <c r="E9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F9" s="0"/>
+      <c r="F9" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -254,7 +274,7 @@
         <v>45968.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -268,15 +288,17 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -291,15 +313,17 @@
         <v>4</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -316,7 +340,7 @@
         <v>45975.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -330,15 +354,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -355,12 +381,12 @@
         <v>45989.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>3</v>
@@ -369,15 +395,17 @@
         <v>4</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0"/>
     </row>
